--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +865,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +958,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1113,10 +1125,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1160,28 +1172,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1206,28 +1218,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1460,10 +1472,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1507,28 +1519,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1553,28 +1565,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1819,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1854,28 +1866,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1912,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2154,10 +2166,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2201,28 +2213,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2247,28 +2259,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2530,10 +2542,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2577,28 +2589,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="2">
+      <c r="C85" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2623,28 +2635,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2935,10 +2947,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2982,28 +2994,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3028,28 +3040,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3282,10 +3294,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3329,28 +3341,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3375,28 +3387,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3484,10 +3496,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3531,28 +3543,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3577,28 +3589,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3715,10 +3727,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3762,28 +3774,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3808,28 +3820,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3946,10 +3958,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3993,28 +4005,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4039,28 +4051,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4177,10 +4189,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4224,28 +4236,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4270,28 +4282,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4408,10 +4420,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4455,28 +4467,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4501,28 +4513,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4639,10 +4651,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4686,28 +4698,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4732,28 +4744,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4870,10 +4882,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4917,28 +4929,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4963,28 +4975,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5072,10 +5084,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5119,28 +5131,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5165,28 +5177,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5332,10 +5344,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5379,28 +5391,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5425,28 +5437,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5534,10 +5546,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5581,28 +5593,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5627,28 +5639,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5707,10 +5719,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5754,28 +5766,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5800,28 +5812,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5880,10 +5892,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5927,28 +5939,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5973,28 +5985,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6082,10 +6094,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6129,28 +6141,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6175,28 +6187,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6255,10 +6267,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6302,28 +6314,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6348,28 +6360,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6428,10 +6440,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6475,28 +6487,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6521,28 +6533,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6601,10 +6613,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6648,28 +6660,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6694,28 +6706,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6774,10 +6786,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6821,28 +6833,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6867,28 +6879,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6947,10 +6959,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
